--- a/软件项目跟踪与管理/Public/Sprint2测试用例.xlsx
+++ b/软件项目跟踪与管理/Public/Sprint2测试用例.xlsx
@@ -286,69 +286,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>验证注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经注册了账号qianliu，密码为123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入登陆界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入登陆界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入qianliu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示登陆成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>进入分享界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>分享界面仍然为原型界面，未完成相关功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张楠凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>王翔、徐非凡、舒倩雯、张楠凌、高晓旭、王文浩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王文浩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证注册成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经注册了账号qianliu，密码为123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入登陆界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入登陆界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入qianliu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示输入密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示输入密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示登陆成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倪垚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>进入分享界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>分享界面仍然为原型界面，未完成相关功能</t>
+    <t>倪垚、舒倩雯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,6 +436,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,20 +457,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -766,11 +766,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -779,102 +779,102 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="F2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <v>42136</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="9">
         <v>42144</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B7">
@@ -893,11 +893,11 @@
         <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8">
         <v>1.2</v>
       </c>
@@ -914,11 +914,11 @@
         <v>32</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9">
         <v>1.3</v>
       </c>
@@ -932,13 +932,13 @@
         <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -961,11 +961,11 @@
         <v>37</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B11">
@@ -984,11 +984,11 @@
         <v>40</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="D12" t="s">
         <v>41</v>
       </c>
@@ -999,11 +999,11 @@
         <v>43</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="E13" t="s">
         <v>56</v>
       </c>
@@ -1011,11 +1011,11 @@
         <v>44</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="E14" t="s">
         <v>58</v>
       </c>
@@ -1023,11 +1023,11 @@
         <v>45</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="D15" t="s">
         <v>45</v>
       </c>
@@ -1038,11 +1038,11 @@
         <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
       <c r="E16" t="s">
         <v>49</v>
       </c>
@@ -1050,11 +1050,11 @@
         <v>50</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="B17">
         <v>3.2</v>
       </c>
@@ -1071,11 +1071,11 @@
         <v>54</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="E18" t="s">
         <v>55</v>
       </c>
@@ -1083,11 +1083,11 @@
         <v>61</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="E19" t="s">
         <v>57</v>
       </c>
@@ -1095,11 +1095,11 @@
         <v>62</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
+      <c r="A20" s="14"/>
       <c r="E20" t="s">
         <v>56</v>
       </c>
@@ -1107,11 +1107,11 @@
         <v>63</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
+      <c r="A21" s="14"/>
       <c r="D21" t="s">
         <v>45</v>
       </c>
@@ -1122,73 +1122,73 @@
         <v>60</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
+      <c r="A22" s="14"/>
       <c r="B22">
         <v>3.3</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="D23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="E23" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="D23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="D24" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="E24" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="D24" t="s">
+      <c r="F24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="G24" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:D1"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A11:A24"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
